--- a/7_named_entity_recognition/output/predictions.xlsx
+++ b/7_named_entity_recognition/output/predictions.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -811,6 +811,3004 @@
         </is>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>['Takuya' 'Takagi' 'scored' 'the' 'winner' 'in' 'the' '88th' 'minute' ','
+ 'rising' 'to' 'head' 'a' 'Hiroshige' 'Yanagimoto' 'cross' 'towards' 'the'
+ 'Syrian' 'goal' 'which' 'goalkeeper' 'Salem' 'Bitar' 'appeared' 'to'
+ 'have' 'covered' 'but' 'then' 'allowed' 'to' 'slip' 'into' 'the' 'net'
+ '.']</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>[22 22 38 12 21 15 12 16 21  6 39 35 37 12 22 22 37 15 12 16 21 43 38 22
+ 22 38 35 37 40 10 30 40 35 37 15 12 21  7]</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>[11 12 21 11 12 13 11 12 12  0 21 22 22 11 12 12 21 13 11 12 12 11 21 11
+ 12 21 22 22 22  0 21 22 22 22 13 11 12  0]</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>[1 2 0 0 0 0 0 0 0 0 0 0 0 0 1 2 0 0 0 7 0 0 0 1 2 0 0 0 0 0 0 0 0 0 0 0 0
+ 0]</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>[0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ 0]</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>['It' 'was' 'the' 'second' 'costly' 'blunder' 'by' 'Syria' 'in' 'four'
+ 'minutes' '.']</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>[28 38 12 16 16 21 15 22 15 11 24  7]</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>[11 21 11 12 12 12 13 11 13 11 12  0]</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>[0 0 0 0 0 0 0 5 0 0 0 0]</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>[0 0 0 0 0 0 0 5 0 0 0 0]</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>['Defender' 'Hassan' 'Abbas' 'rose' 'to' 'intercept' 'a' 'long' 'ball'
+ 'into' 'the' 'area' 'in' 'the' '84th' 'minute' 'but' 'only' 'managed'
+ 'to' 'divert' 'it' 'into' 'the' 'top' 'corner' 'of' 'Bitar' "'s" 'goal'
+ '.']</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>[22 22 22 38 35 37 12 16 21 15 12 21 15 12 16 21 10 30 38 35 37 28 15 12
+ 16 21 15 21 27 21  7]</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>[11 12 12 21 22 22 11 12 12 13 11 12 13 11 12 12  0  3 21 22 22 11 13 11
+ 12 12 13 11 11 12  0]</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>[0 1 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0]</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>[0 1 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0]</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>['Nader' 'Jokhadar' 'had' 'given' 'Syria' 'the' 'lead' 'with' 'a'
+ 'well-struck' 'header' 'in' 'the' 'seventh' 'minute' '.']</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>[22 22 38 40 22 12 21 15 12 21 21 15 12 16 21  7]</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>[11 12 21 22 11 11 12 13 11 12 12 13 11 12 12  0]</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>[1 2 0 0 5 0 0 0 0 0 0 0 0 0 0 0]</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>[1 2 0 0 5 0 0 0 0 0 0 0 0 0 0 0]</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>['Japan' 'then' 'laid' 'siege' 'to' 'the' 'Syrian' 'penalty' 'area' 'for'
+ 'most' 'of' 'the' 'game' 'but' 'rarely' 'breached' 'the' 'Syrian'
+ 'defence' '.']</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>[22 30 38 21 35 12 16 21 21 15 18 15 12 21 10 30 38 12 16 21  7]</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>[11  3 21 11 13 11 12 12 12 13 11 13 11 12  0 21 22 11 12 12  0]</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>[5 0 0 0 0 0 7 0 0 0 0 0 0 0 0 0 0 0 7 0 0]</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>[5 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 5 0 0]</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>['Bitar' 'pulled' 'off' 'fine' 'saves' 'whenever' 'they' 'did' '.']</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>[21 38 33 16 42 46 28 38  7]</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>[11 21 15 11 21  3 11 21  0]</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>[1 0 0 0 0 0 0 0 0]</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>[0 0 0 0 0 0 0 0 0]</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>['Japan' 'coach' 'Shu' 'Kamo' 'said' ':' "'" "'" 'The' 'Syrian' 'own'
+ 'goal' 'proved' 'lucky' 'for' 'us' '.']</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>[22 21 22 22 38  8  1 27 12 16 16 21 38 16 15 28  7]</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>[11 12 12 12 21  0  0 11 12 12 12 12 21  1 13 11  0]</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>[5 0 1 2 0 0 0 0 0 7 0 0 0 0 0 0 0]</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>[5 0 1 2 0 0 0 0 0 7 0 0 0 0 0 0 0]</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>['The' 'Syrians' 'scored' 'early' 'and' 'then' 'played' 'defensively'
+ 'and' 'adopted' 'long' 'balls' 'which' 'made' 'it' 'hard' 'for' 'us' '.'
+ "'"]</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>[12 23 38 16 10 30 40 30 10 38 30 42 43 38 28 16 15 28  7  1]</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>[11 12 21 11  0 21 22  3  0 21 22 22 11 21 11  1 13 11  0  0]</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>[0 7 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>[0 7 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>["'"]</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>[1]</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>['Japan' ',' 'co-hosts' 'of' 'the' 'World' 'Cup' 'in' '2002' 'and'
+ 'ranked' '20th' 'in' 'the' 'world' 'by' 'FIFA' ',' 'are' 'favourites'
+ 'to' 'regain' 'their' 'title' 'here' '.']</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>[22  6 42 15 12 22 22 15 11 10 38 16 15 12 21 15 22  6 41 16 35 37 29 21
+ 30  7]</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>[11  0 21 13 11 12 12 13 11  0 21 11 13 11 12 13 11  0 21  1 21 22 11 12
+  3  0]</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>[5 0 0 0 0 7 8 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0]</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>[5 0 0 0 0 7 8 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0]</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>['Hosts' 'UAE' 'play' 'Kuwait' 'and' 'South' 'Korea' 'take' 'on'
+ 'Indonesia' 'on' 'Saturday' 'in' 'Group' 'A' 'matches' '.']</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>[23 22 21 22 10 22 22 41 15 22 15 22 15 22 22 42  7]</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>[11 12 12 12  0 11 12 21 13 11 13 11 13 11 12 21  0]</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>[0 5 0 5 0 5 6 0 0 5 0 0 0 0 0 0 0]</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>[0 1 0 3 0 5 6 0 0 5 0 0 0 0 0 0 0]</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>['All' 'four' 'teams' 'are' 'level' 'with' 'one' 'point' 'each' 'from'
+ 'one' 'game' '.']</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>[12 11 24 41 21 15 11 21 12 15 11 21  7]</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>[11 12 12 21 11 13 11 12 11 13 11 12  0]</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>[0 0 0 0 0 0 0 0 0 0 0 0 0]</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>[0 0 0 0 0 0 0 0 0 0 0 0 0]</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>['RUGBY' 'UNION' '-' 'CUTTITTA' 'BACK' 'FOR' 'ITALY' 'AFTER' 'A' 'YEAR'
+ '.']</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>[22 21  8 22 22 15 16 22 22 22  7]</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>[11 12  0 11 12 13 11 12 12 12  0]</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>[3 4 0 1 0 0 5 0 0 0 0]</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>[0 0 0 1 2 0 5 0 0 0 0]</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>['ROME' '1996-12-06']</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>[37 11]</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>[11 12]</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>[5 0]</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>[5 0]</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>['Italy' 'recalled' 'Marcello' 'Cuttitta']</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>[22 38 22 22]</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>[11 21 11 12]</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>[5 0 1 2]</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>[5 0 1 2]</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>['on' 'Friday' 'for' 'their' 'friendly' 'against' 'Scotland' 'at'
+ 'Murrayfield' 'more' 'than' 'a' 'year' 'after' 'the' '30-year-old' 'wing'
+ 'announced' 'he' 'was' 'retiring' 'following' 'differences' 'over'
+ 'selection' '.']</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>[15 22 15 29 16 15 22 15 22 17 15 12 21 15 12 16 21 38 28 38 39 39 24 15
+ 21  7]</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>[13 11 13 11 12 13 11 13 11  1 13 11 12 13 11 12 12 21 11 21 22 13 11 13
+ 11  0]</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>[0 0 0 0 0 0 5 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>[0 0 0 0 0 0 5 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>['Cuttitta' ',' 'who' 'trainer' 'George' 'Coste' 'said' 'was' 'certain'
+ 'to' 'play' 'on' 'Saturday' 'week' ',' 'was' 'named' 'in' 'a' '21-man'
+ 'squad' 'lacking' 'only' 'two' 'of' 'the' 'team' 'beaten' '54-21' 'by'
+ 'England' 'at' 'Twickenham' 'last' 'month' '.']</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>[22  6 44 21 22 22 38 38 16 35 37 15 22 21  6 38 40 15 12 16 21 39 30 11
+ 15 12 21 40 16 15 22 15 22 16 21  7]</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>[11  0 11 12 12 12 21 21  1 21 22 13 11 12  0 21 22 13 11 12 12 21 11 12
+ 13 11 12 21  1 13 11 13 11 11 12  0]</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>[1 0 0 0 1 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 5 0 0 0]</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>[0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>['Stefano' 'Bordon' 'is' 'out' 'through' 'illness' 'and' 'Coste' 'said'
+ 'he' 'had' 'dropped' 'back' 'row' 'Corrado' 'Covi' ',' 'who' 'had' 'been'
+ 'recalled' 'for' 'the' 'England' 'game' 'after' 'five' 'years' 'out' 'of'
+ 'the' 'national' 'team' '.']</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>[22 22 42 33 15 21 10 22 38 28 38 40 30 21 22 22  6 44 38 40 38 15 12 22
+ 21 15 11 24 15 15 12 16 21  7]</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>[11 12 21 15 13 11  0 11 21 11 21 22  3 11 11 12  0 11 21 22 21 13 11 12
+ 12 13 11 12 13 13 11 12 12  0]</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>[1 2 0 0 0 0 0 1 0 0 0 0 0 0 1 2 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0]</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>[0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>['Cuttitta' 'announced' 'his' 'retirement' 'after' 'the' '1995' 'World'
+ 'Cup' ',' 'where' 'he' 'took' 'issue' 'with' 'being' 'dropped' 'from'
+ 'the' 'Italy' 'side' 'that' 'faced' 'England' 'in' 'the' 'pool' 'stages'
+ '.']</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>[22 38 29 21 15 12 11 22 22  6 46 28 38 21 15 39 40 15 12 22 21 43 38 22
+ 15 12 21 24  7]</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>[11 21 11 12 13 11 12 12 12  0  3 11 21 11 13 21 22 13 11 12 12 11 21 11
+ 13 11 12 12  0]</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>[1 0 0 0 0 0 7 8 8 0 0 0 0 0 0 0 0 0 0 5 0 0 0 5 0 0 0 0 0]</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>[1 0 0 0 0 0 0 7 8 0 0 0 0 0 0 0 0 0 0 5 0 0 0 5 0 0 0 0 0]</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>['Coste' 'said' 'he' 'had' 'approached' 'the' 'player' 'two' 'months'
+ 'ago' 'about' 'a' 'comeback' '.']</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>[22 38 28 38 40 12 21 11 24 30 30 12 21  7]</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>[11 21 11 21 22 11 12 11 12  3 11 12 12  0]</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>[1 0 0 0 0 0 0 0 0 0 0 0 0 0]</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>[1 0 0 0 0 0 0 0 0 0 0 0 0 0]</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>['"' 'He' 'ended' 'the' 'World' 'Cup' 'on' 'the' 'wrong' 'note' ',' '"'
+ 'Coste' 'said' '.']</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>[ 0 28 38 12 22 22 15 12 16 21  6  0 22 38  7]</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>[ 0 11 21 11 12 12 13 11 12 12  0  0 11 21  0]</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>[0 0 0 0 7 8 0 0 0 0 0 0 1 0 0]</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>[0 1 0 0 7 8 0 0 0 0 0 0 1 0 0]</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>['"' 'I' 'thought' 'it' 'would' 'be' 'useful' 'to' 'have' 'him' 'back'
+ 'and' 'he' 'said' 'he' 'would' 'be' 'available' '.']</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>[ 0 28 38 28 20 37 16 35 37 28 30 10 28 38 28 20 37 16  7]</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>[ 0 11 21 11 21 22  1 21 22 11  3  0 11 21 11 21 22  1  0]</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>[0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>[0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>['I' 'think' 'now' 'is' 'the' 'right' 'time' 'for' 'him' 'to' 'return' '.'
+ '"']</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>[28 41 30 42 12 16 21 15 28 35 37  7  0]</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>[11 21 22 22 11 12 12 17 11 21 22  0  0]</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>[0 0 0 0 0 0 0 0 0 0 0 0 0]</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>[0 0 0 0 0 0 0 0 0 0 0 0 0]</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>['Squad' ':' 'Javier' 'Pertile' ',' 'Paolo' 'Vaccari' ',' 'Marcello'
+ 'Cuttitta' ',' 'Ivan' 'Francescato' ',' 'Leandro' 'Manteri' ',' 'Diego'
+ 'Dominguez' ',' 'Francesco' 'Mazzariol' ',' 'Alessandro' 'Troncon' ','
+ 'Orazio' 'Arancio' ',' 'Andrea' 'Sgorlon' ',' 'Massimo' 'Giovanelli' ','
+ 'Carlo' 'Checchinato' ',' 'Walter' 'Cristofoletto' ',' 'Franco'
+ 'Properzi' 'Curti' ',' 'Carlo' 'Orlandi' ',' 'Massimo' 'Cuttitta' ','
+ 'Giambatista' 'Croci' ',' 'Gianluca' 'Guidi' ',' 'Nicola' 'Mazzucato' ','
+ 'Alessandro' 'Moscardi' ',' 'Andrea' 'Castellani' '.']</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>[37  8 22 22  6 22 22  6 22 22  6 22 22  6 22 22  6 22 22  6 22 22  6 22
+ 22  6 22 22  6 22 22  6 22 22  6 22 22  6 22 22  6 22 22 22  6 22 22  6
+ 22 22  6 22 22  6 22 22  6 22 22  6 22 22  6 22 22  7]</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>[21  0 11 12  0 11 12  0 11 12  0 11 12  0 11 12  0 11 12  0 11 12  0 11
+ 12  0 11 12  0 11 12  0 11 12  0 11 12  0 11 12  0 11 12 12  0 11 12  0
+ 11 12  0 11 12  0 11 12  0 11 12  0 11 12  0 11 12  0]</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>[0 0 1 2 0 1 2 0 1 2 0 1 2 0 1 2 0 1 2 0 1 2 0 1 2 0 1 2 0 1 2 0 1 2 0 1 2
+ 0 1 2 0 1 2 2 0 1 2 0 1 2 0 1 2 0 1 2 0 1 2 0 1 2 0 1 2 0]</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>[0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>['SOCCER' '-' 'LATE' 'GOALS' 'GIVE' 'JAPAN' 'WIN' 'OVER' 'SYRIA' '.']</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>[21  8 16 24 41 22 22 15 22  7]</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>[11  0 11 12 21 11 12 13 11  0]</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>[0 0 0 0 0 5 0 0 5 0]</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>[0 0 0 0 0 5 0 0 5 0]</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>['AL-AIN' ',' 'United' 'Arab' 'Emirates' '1996-12-06']</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>[22  6 22 22 23 11]</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>[11  0 11 12 12 12]</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>[5 0 5 6 6 0]</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>[5 0 5 6 6 0]</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>['Two' 'goals' 'in' 'the' 'last' 'six' 'minutes' 'gave' 'holders' 'Japan'
+ 'an' 'uninspiring' '2-1' 'Asian' 'Cup' 'victory' 'over' 'Syria' 'on'
+ 'Friday' '.']</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>[11 24 15 12 16 11 24 38 24 22 12 16 11 22 22 21 15 22 15 22  7]</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>[11 12 13 11 12 12 12 21 11 12 11 12 12 12 12 12 13 11 13 11  0]</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>[0 0 0 0 0 0 0 0 0 5 0 0 0 7 8 0 0 5 0 0 0]</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>[0 0 0 0 0 0 0 0 0 5 0 0 0 7 8 0 0 5 0 0 0]</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>['Takuya' 'Takagi' 'headed' 'the' 'winner' 'in' 'the' '88th' 'minute' 'of'
+ 'the' 'group' 'C' 'game' 'after' 'goalkeeper' 'Salem' 'Bitar' 'spoiled'
+ 'a' 'mistake-free' 'display' 'by' 'allowing' 'the' 'ball' 'to' 'slip'
+ 'under' 'his' 'body' '.']</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>[22 22 38 12 21 15 12 16 21 15 12 21 22 21 15 21 22 22 16 12 21 21 15 39
+ 12 21 35 37 15 29 21  7]</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>[11 12 21 11 12 13 11 12 12 13 11 12 12 12 13 11 12 12 12 12 12 12 13 21
+ 11 12 21 22 13 11 12  0]</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>[1 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0]</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>[1 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0]</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>['It' 'was' 'the' 'second' 'Syrian' 'defensive' 'blunder' 'in' 'four'
+ 'minutes' '.']</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>[28 38 12 16 16 16 21 15 11 24  7]</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>[11 21 11 12 12 12 12 13 11 12  0]</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>[0 0 0 0 7 0 0 0 0 0 0]</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>[0 0 0 0 7 0 0 0 0 0 0]</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>['Defender' 'Hassan' 'Abbas' 'rose' 'to' 'intercept' 'a' 'long' 'ball'
+ 'into' 'the' 'area' 'in' 'the' '84th' 'minute' 'but' 'only' 'managed'
+ 'to' 'divert' 'it' 'into' 'the' 'top' 'corner' 'of' 'Bitar' "'s" 'goal'
+ '.']</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>[22 22 22 38 35 37 12 16 21 15 12 21 15 12 16 21 10 30 38 35 37 28 15 12
+ 16 21 15 21 27 21  7]</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>[11 12 12 21 22 22 11 12 12 13 11 12 13 11 12 12  0  3 21 22 22 11 13 11
+ 12 12 13 11 11 12  0]</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>[0 1 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0]</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>[0 1 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0]</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>['Syria' 'had' 'taken' 'the' 'lead' 'from' 'their' 'first' 'serious'
+ 'attack' 'in' 'the' 'seventh' 'minute' '.']</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>[22 38 40 12 21 15 29 16 16 21 15 12 16 21  7]</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>[11 21 22 11 12 13 11 12 12 12 13 11 12 12  0]</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>[5 0 0 0 0 0 0 0 0 0 0 0 0 0 0]</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>[5 0 0 0 0 0 0 0 0 0 0 0 0 0 0]</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>['Nader' 'Jokhadar' 'headed' 'a' 'cross' 'from' 'the' 'right' 'by' 'Ammar'
+ 'Awad' 'into' 'the' 'top' 'right' 'corner' 'of' 'Kenichi' 'Shimokawa'
+ "'s" 'goal' '.']</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>[22 22 38 12 21 15 12 21 15 22 22 15 12 16 21 21 15 22 22 27 21  7]</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>[11 12 21 11 12 13 11 12 13 11 12 13 11 12 12 12 13 11 12 11 12  0]</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>[1 2 0 0 0 0 0 0 0 1 2 0 0 0 0 0 0 1 2 0 0 0]</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>[1 2 0 0 0 0 0 0 0 1 2 0 0 0 0 0 0 1 2 0 0 0]</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>['Japan' 'then' 'laid' 'siege' 'to' 'the' 'Syrian' 'penalty' 'area' 'and'
+ 'had' 'a' 'goal' 'disallowed' 'for' 'offside' 'in' 'the' '16th' 'minute'
+ '.']</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>[22 30 38 21 35 12 16 21 21 10 38 12 21 38 15 21 15 12 16 21  7]</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>[11  3 21 11 13 11 12 12 12  0 21 11 12 21 13  3 13 11 12 12  0]</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>[5 0 0 0 0 0 7 0 0 0 0 0 0 0 0 0 0 0 0 0 0]</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>[5 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0]</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>['A' 'minute' 'later' ',' 'Bitar' 'produced' 'a' 'good' 'double' 'save'
+ ',' 'first' 'from' 'Kazuyoshi' 'Miura' "'s" 'header' 'and' 'then'
+ 'blocked' 'a' 'Takagi' 'follow-up' 'shot' '.']</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>[12 21 30  6 21 38 12 16 16 37  6 16 15 22 22 27 21 10 30 40 12 22 16 21
+  7]</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>[11 12  3  0 11 21 11 12 12 21  0 11 13 11 12 11 12  0 21 22 11 12 12 12
+  0]</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>[0 0 0 0 1 0 0 0 0 0 0 0 0 1 2 0 0 0 0 0 0 1 0 0 0]</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>[0 0 0 0 1 0 0 0 0 0 0 0 0 1 2 0 0 0 0 0 0 1 0 0 0]</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>['Bitar' 'saved' 'well' 'again' 'from' 'Miura' 'in' 'the' '37th' 'minute'
+ ',' 'parrying' 'away' 'his' 'header' 'from' 'a' 'corner' '.']</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>[16 16 21 30 15 22 15 12 16 21  6 39 30 29 21 15 12 21  7]</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>[11 12 12  3 13 11 13 11 12 12  0 21  3 11 12 13 11 12  0]</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>[1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0]</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>[1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0]</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>['Japan' 'started' 'the' 'second' 'half' 'brightly' 'but' 'Bitar' 'denied'
+ 'them' 'an' 'equaliser' 'when' 'he' 'dived' 'to' 'his' 'right' 'to'
+ 'save' 'Naoki' 'Soma' "'s" 'low' 'drive' 'in' 'the' '53rd' 'minute' '.']</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>[22 38 12 16 21 30 10 22 38 28 12 21 46 28 38 35 29 21 35 37 22 22 27 16
+ 21 15 12 11 21  7]</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>[11 21 11 12 12  3  0 11 21 11 11 12  3 11 21 13 11 12 21 22 11 12 11 12
+ 12 13 11 12 12  0]</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>[5 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 2 0 0 0 0 0 0 0 0]</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>[0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>['Japan' ':' '19' '-' 'Kenichi' 'Shimokawa' ',' '2' '-' 'Hiroshige'
+ 'Yanagimoto' ',' '3' '-' 'Naoki' 'Soma' ',' '4' '-' 'Masami' 'Ihara' ','
+ '5' '-' 'Norio' 'Omura' ',' '6' '-' 'Motohiro' 'Yamaguchi' ',' '8' '-'
+ 'Masakiyo' 'Maezono' '(' '7' '-' 'Yasuto' 'Honda' '71' ')' ',' '9' '-'
+ 'Takuya' 'Takagi' ',' '10' '-' 'Hiroshi' 'Nanami' ',' '11' '-'
+ 'Kazuyoshi' 'Miura' ',' '15' '-' 'Hiroaki' 'Morishima' '(' '14' '-'
+ 'Masayuki' 'Okano' '75' ')' '.']</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>[22  8 11  8 22 22  6 11  8 22 22  6 11  8 22 22  6 11  8 22 22  6 11  8
+ 22 22  6 11  8 22 22  6 11  8 22 22  4 11  8 22 22 11  5  6 11  8 22 22
+  6 11  8 22 22  6 11  8 22 22  6 11  8 22 22  4 11  8 22 22 11  5  7]</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>[11  0 11 12 12 12  0 11 12 12 12  0 11 12 11 12  0 11 12 12 12  0 11 12
+ 12 12  0 11 12 12 12  0 11 12 12 12  0 11 12 12 12 12  0  0 11 12 12 12
+  0 11 12 12 12  0 11 12 12 12  0 11 12 12 12  0 11 12 12 12 12  0  0]</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>[5 0 0 0 1 2 0 0 0 1 2 0 0 0 1 2 0 0 0 1 2 0 0 0 1 2 0 0 0 1 2 0 0 0 1 2 0
+ 0 0 1 2 0 0 0 0 0 1 2 0 0 0 1 2 0 0 0 1 2 0 0 0 1 2 0 0 0 1 2 0 0 0]</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>[0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>['Syria' ':' '24' '-' 'Salem' 'Bitar' ',' '3' '-' 'Bachar' 'Srour' ';' '4'
+ '-' 'Hassan' 'Abbas' ',' '5' '-' 'Tarek' 'Jabban' ',' '6' '-' 'Ammar'
+ 'Awad' '(' '9' '-' 'Louay' 'Taleb' '69' ')' ',' '8' '-' 'Nihad'
+ 'al-Boushi' ',' '10' '-' 'Mohammed' 'Afash' ',' '12' '-' 'Ali' 'Dib' ','
+ '13' '-' 'Abdul' 'Latif' 'Helou' '(' '17' '-' 'Ammar' 'Rihawiy' '46' ')'
+ ',' '14' '-' 'Khaled' 'Zaher' ';' '16' '-' 'Nader' 'Jokhadar' '.']</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>[22  8 11  8 22 22  6 11  8 22 22  8 11  8 22 22  6 11  8 22 22  6 11  8
+ 22 22  4 11  8 16 22 11  5  6 11  8 22 24  6 11  8 22 22  6 11  8 22 22
+  6 11  8 22 22 22  4 11  8 22 22 11  5  6 11  8 38 22  8 11  8 22 22  7]</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>[11  0 11 12 12 12  0 11 12 12 12  0 11 12 12 12  0 11 12 12 12  0 11 12
+ 12 12  0 11 12 12 12 12  0  0 11 12 12 12  0 11 12 12 12  0 11 12 12 12
+  0 11 12 12 12 12  0 11 12 12 12 12  0  0 11 12 21 11  0 11 12 12 12  0]</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>[5 0 0 0 1 2 0 0 0 1 2 0 0 0 1 2 0 0 0 1 2 0 0 0 1 2 0 0 0 1 2 0 0 0 0 0 1
+ 2 0 0 0 1 2 0 0 0 1 2 0 0 0 1 2 2 0 0 0 1 2 0 0 0 0 0 1 2 0 0 0 1 2 0]</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>[0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>['FREESTYLE' 'SKIING-WORLD' 'CUP' 'MOGUL' 'RESULTS' '.']</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>[22 22 22 22 24  7]</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>[11 12 12 12 12  0]</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>[0 7 8 0 0 0]</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>[0 7 8 7 8 0]</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>['TIGNES' ',' 'France' '1996-12-06']</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>[22  6 22 11]</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>[11  0 11 12]</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>[5 0 5 0]</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>[0 0 5 0]</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>['Results' 'of' 'the' 'World' 'Cup']</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>[24 15 12 22 22]</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>[11 13 11 12 12]</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>[0 0 0 7 8]</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>[0 0 0 7 8]</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>['freestyle' 'skiing' 'moguls' 'competition' 'on' 'Friday' ':']</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>[16 21 24 21 15 22  8]</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>[11 12 12 12 13 11  0]</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>[0 0 0 0 0 0 0]</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>[0 0 0 0 0 0 0]</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>['Men']</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>[21]</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>[11]</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>['1.' 'Jesper' 'Ronnback' '(' 'Sweden' ')' '25.76' 'points']</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>[11 22 22  4 22  5 11 24]</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>[11 12 12  0 11  0 11 12]</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>[0 1 2 0 5 0 0 0]</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>[0 1 2 0 5 0 0 0]</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>['2.' 'Andrei' 'Ivanov' '(' 'Russia' ')' '24.88']</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>[11 22 22  4 22  5 11]</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>[11 11 12  0 11  0 11]</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>[0 1 2 0 5 0 0]</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>[0 1 2 0 5 0 0]</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>['3.' 'Ryan' 'Johnson' '(' 'Canada' ')' '24.57']</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>[22 22 22  4 22  5 11]</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>[11 12 12  0 11  0 11]</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>[0 1 2 0 5 0 0]</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>[0 1 2 0 5 0 0]</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>['4.' 'Jean-Luc' 'Brassard' '(' 'Canada' ')' '24.40']</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>[11 22 22  4 22  5 11]</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>[11 12 12  0 11  0 11]</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>[0 1 2 0 5 0 0]</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>[0 1 2 0 5 0 0]</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>['5.' 'Korneilus' 'Hole' '(' 'Norway' ')' '23.92']</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>[11 22 22  4 22  5 11]</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>[11 12 12  0 11  0 11]</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>[0 1 2 0 5 0 0]</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>[0 1 2 0 5 0 0]</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>['6.' 'Jeremie' 'Collomb-Patton' '(' 'France' ')' '23.87']</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>[11 22 22  4 22  5 11]</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>[11 12 12  0 11  0 11]</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>[0 1 2 0 5 0 0]</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>[0 1 2 0 5 0 0]</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>['7.' 'Jim' 'Moran' '(' 'U.S.' ')' '23.25']</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>[22 22 22  4 22  5 11]</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>[11 12 12  0 11  0 11]</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>[0 1 2 0 5 0 0]</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>[0 1 2 0 5 0 0]</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>['8.' 'Dominick' 'Gauthier' '(' 'Canada' ')' '22.73']</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>[22 22 22  4 22  5 11]</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>[11 12 12  0 11  0 11]</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>[0 1 2 0 5 0 0]</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>[0 1 2 0 5 0 0]</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>['9.' 'Johann' 'Gregoire' '(' 'France' ')' '22.58']</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>[11 22 22  4 22  5 11]</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>[11 12 12  0 11  0 11]</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>[0 1 2 0 5 0 0]</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>[0 1 2 0 5 0 0]</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>['10.' 'Troy' 'Benson' '(' 'U.S.' ')' '22.56']</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>[11 22 22  4 22  5 11]</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>[11 12 12  0 11  0 11]</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>[0 1 2 0 5 0 0]</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>[0 1 2 0 5 0 0]</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>['Women']</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>[24]</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>[11]</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>['1.' 'Tatjana' 'Mittermayer' '(' 'Germany' ')' '24.32']</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>[11 22 22  4 22  5 11]</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>[11 12 12  0 11  0 11]</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>[0 1 2 0 5 0 0]</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>[0 1 2 0 5 0 0]</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>['2.' 'Candice' 'Gilg' '(' 'France' ')' '24.31']</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>[22 22 22  4 22  5 11]</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>[11 12 12  0 11  0 11]</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>[0 1 2 0 5 0 0]</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>[0 1 2 0 5 0 0]</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>['3.' 'Minna' 'Karhu' '(' 'Finland' ')' '24.05']</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>[22 22 22  4 22  5 11]</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>[11 12 12  0 11  0 11]</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>[0 1 2 0 5 0 0]</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>[0 1 2 0 5 0 0]</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>['4.' 'Tae' 'Satoya' '(' 'Japan' ')' '23.75']</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>[11 22 22  4 22  5 11]</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>[11 12 12  0 11  0 11]</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>[0 1 2 0 5 0 0]</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>[0 1 2 0 5 0 0]</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>['5.' 'Ann' 'Battellle' '(' 'U.S.' ')' '23.56']</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>[22 22 22  4 22  5 11]</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>[11 12 12  0 11  0 11]</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>[0 1 2 0 5 0 0]</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>[0 1 2 0 5 0 0]</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>['6.' 'Donna' 'Weinbrecht' '(' 'U.S.' ')' '22.48']</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>[22 22 22  4 22  5 11]</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>[11 12 12  0 11  0 11]</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>[0 1 2 0 5 0 0]</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>[0 1 2 0 5 0 0]</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>['7.' 'Liz' 'McIntyre' '(' 'U.S.' ')' '22.00']</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>[22 22 22  4 22  5 11]</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>[11 12 12  0 11  0 11]</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>[0 1 2 0 5 0 0]</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>[0 1 2 0 5 0 0]</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>['8.' 'Elena' 'Koroleva' '(' 'Russia' ')' '21.77']</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>[22 22 22  4 22  5 11]</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>[11 12 12  0 11  0 11]</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>[0 1 2 0 5 0 0]</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>[0 1 2 0 5 0 0]</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>['9.' 'Ljudmila' 'Dymchenko' '(' 'Russia' ')' '21.59']</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>[11 22 22  4 22  5 11]</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>[11 12 12  0 11  0 11]</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>[0 1 2 0 5 0 0]</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>[0 1 2 0 5 0 0]</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>['10.' 'Katleen' 'Allais' '(' 'France' ')' '21.58']</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>[11 22 23  4 22  5 11]</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>[11 12 12  0 11  0 11]</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>[0 1 2 0 5 0 0]</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>[0 1 2 0 5 0 0]</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>['SOCCER' '-' 'ASIAN' 'CUP' 'GROUP' 'C' 'RESULTS' '.']</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>[21  8 22 22 22 22 24  7]</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>[11  0 11 12 12 12 12  0]</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>[0 0 7 8 0 0 0 0]</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>[0 0 7 8 8 8 0 0]</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>['AL-AIN' ',' 'United' 'Arab' 'Emirates' '1996-12-06']</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>[22  6 22 22 23 11]</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>[11  0 11 12 12 12]</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>[5 0 5 6 6 0]</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>[5 0 5 6 6 0]</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>['Results' 'of' 'Asian' 'Cup' 'group' 'C' 'matches' 'played' 'on' 'Friday'
+ ':']</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>[24 15 22 22 21 22 24 40 15 22  8]</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>[11 13 11 12 12 12 12 21 13 11  0]</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>[0 0 7 8 0 0 0 0 0 0 0]</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>[0 0 7 8 0 0 0 0 0 0 0]</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>['Japan' '2' 'Syria' '1' '(' 'halftime' '0-1' ')']</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>[22 11 22 11  4 21 16  5]</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>[11 12 12 12 12 12  3  0]</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>[5 0 5 0 0 0 0 0]</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>[5 0 5 0 0 0 0 0]</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>['Scorers' ':']</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>[24  8]</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>[11  0]</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>[0 0]</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>[0 0]</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>['Japan' '-' 'Hassan' 'Abbas' '84' 'own' 'goal' ',' 'Takuya' 'Takagi' '88'
+ '.']</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>[22  8 22 22 11 16 21  6 22 22 11  7]</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>[11  0 11 12 12 12 12  0 11 12 12  0]</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>[5 0 1 2 0 0 0 0 1 2 0 0]</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>[5 0 1 2 0 0 0 0 1 2 0 0]</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>['Syria' '-' 'Nader' 'Jokhadar' '7']</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>[22  8 22 22 11]</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>[11  0 11 12 12]</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>[5 0 1 2 0]</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>[5 0 1 2 0]</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>['Attendance' ':' '10,000' '.']</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>[21  8 19  7]</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>[11  0  9  0]</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>[0 0 0 0]</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>[0 0 1 0]</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>['China' '0' 'Uzbekistan' '2' '(' 'halftime' '0-0' ')']</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>[22 11 22 11  4 21 11  5]</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>[11 12 12 12 12 12 12  0]</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>[5 0 5 0 0 0 0 0]</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>[5 0 5 0 0 0 0 0]</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>['Scorers' ':' 'Shkvyrin' 'Igor' '78' ',' 'Shatskikh' 'Oleg' '90']</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>[24  8 22 22 11  6 22 22 11]</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>[11  0 11 12 12  0 11 12 12]</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>[0 0 1 2 0 0 1 2 0]</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>[0 0 1 2 0 0 1 2 0]</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>['Attendence' ':' '3,000']</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>[21  8 11]</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>[11  0 11]</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>[0 0 0]</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>[0 1 2]</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>['Standings' '(' 'tabulate' 'under' 'played' ',' 'won' ',' 'drawn' ','
+ 'lost' ',' 'goals']</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>[24  4 21 15 16  6 38  6 40  6 38  6 24]</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>[11  0 11 13 11  0 21 21 22  0 21  0 11]</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>[0 0 0 0 0 0 0 0 0 0 0 0 0]</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>[0 0 0 0 0 0 0 0 0 0 0 0 0]</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>['for' ',' 'goals' 'against' ',' 'points' ')' ':']</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>[15  6 24 15  6 42  5  8]</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>[13  0 11 13  0 21  0  0]</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>[0 0 0 0 0 0 0 0]</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>[0 0 0 0 0 0 0 0]</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>['Uzbekistan' '1' '1' '0' '0' '2' '0' '3']</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>[22 11 11 11 11 11 11 11]</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>[11 12 12 12 12 12 12 12]</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>[5 0 0 0 0 0 0 0]</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>[5 0 0 0 0 0 0 0]</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>['Japan' '1' '1' '0' '0' '2' '1' '3']</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>[22 11 11 11 11 11 11 11]</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>[11 12 12 12 12 12 12 12]</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>[5 0 0 0 0 0 0 0]</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>[5 0 0 0 0 0 0 0]</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>['Syria' '1' '0' '0' '1' '1' '2' '0']</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>[22 11 11 11 11 11 11 11]</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>[11 12 12 12 12 12 12 12]</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>[5 0 0 0 0 0 0 0]</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>[5 0 0 0 0 0 0 0]</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>['China' '1' '0' '0' '1' '0' '2' '0']</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>[22 11 11 11 11 11 11 11]</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>[11 12 12 12 12 12 12 12]</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>[5 0 0 0 0 0 0 0]</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>[5 0 0 0 0 0 0 0]</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>['CRICKET' '-' 'PAKISTAN' 'V' 'NEW' 'ZEALAND' 'ONE-DAY' 'SCOREBOARD' '.']</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>[22  8 22 22 16 22 16 22  7]</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>[11  0 11 12 12 12 12 12  0]</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>[0 0 5 0 5 6 0 0 0]</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>[0 0 5 0 5 6 0 0 0]</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>['[' 'CORRECTED' '14:06' 'GMT' ']']</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>[ 4 22 11 22  5]</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>[ 0 11 12 12  0]</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>[0 0 0 7 0]</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>[0 1 2 3 4]</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>['SIALKOT' ',' 'Pakistan' '1996-12-06']</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>[22  6 22 11]</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>[11  0 11 12]</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>[5 0 5 0]</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>[5 0 6 0]</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>['Scoreboard' 'in' 'the' 'second']</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>[30 15 12 16]</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>[ 3 13 11 12]</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>[0 0 0 0]</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>[0 1 2 3]</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>['one-day' 'cricket' 'international' 'between' 'Pakistan' 'and' 'New'
+ 'Zealand']</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>[16 21 16 15 22 10 22 22]</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>[11 12 12 13 11  0 11 12]</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>[0 0 0 0 5 0 5 6]</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>[0 0 0 0 5 0 5 6]</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>['on' 'Friday' ':']</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>[15 22  8]</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>[13 11  0]</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>[0 0 0]</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>[0 1 2]</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>['Pakistan']</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>[22]</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>[11]</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>[5]</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>[5]</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>['Saeed' 'Anwar' 'run' 'out' '91' '(' 'corrects' 'from' '90' ')']</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>[22 22 41 33 11  4 42 15 11  5]</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>[11 12 21 15 11  0 21 13 11  0]</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>[1 2 0 0 0 0 0 0 0 0]</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>[1 2 0 0 0 0 0 0 0 0]</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>['Zahoor' 'Elahi' 'b' 'Cairns' '86' '(' 'corrects' 'from' '87' ')']</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>[22 22 34 23 11  4 42 15 11  5]</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>[11 12  0 11 12  0 21 13 11  0]</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>[1 2 0 1 0 0 0 0 0 0]</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>[1 2 0 3 4 0 0 0 0 0]</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
